--- a/server/assets/templates/ticket.xlsx
+++ b/server/assets/templates/ticket.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOD\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOD\Desktop\freelnace\tor_anagment\server\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3365707-ED88-4775-B7C3-50FB291A7083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848F37B1-20E6-448D-AF76-40D5142B31B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{612F5466-FCFA-4EEC-B4C2-882301A419AA}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{612F5466-FCFA-4EEC-B4C2-882301A419AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1C62D9-861A-4BD5-AB1A-BFC7CA7F03A9}">
   <dimension ref="A5:E5"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
